--- a/Content/Starter Kit - Intelligent Apps & Analytics/5 - AzureCostEstimatorSample-Scenario 1 - Advanced Analytics with Azure SQL Data Warehouse and Power BI.xlsx
+++ b/Content/Starter Kit - Intelligent Apps & Analytics/5 - AzureCostEstimatorSample-Scenario 1 - Advanced Analytics with Azure SQL Data Warehouse and Power BI.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dezhao\Documents\GitHub\azure-starterkits\Content\Starter Kit - Intelligent Apps &amp; Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -398,12 +398,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;\ #,##0.00_);&quot;$&quot;\ \(#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;\ #,##0.00&quot;/month&quot;"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;\ #,##0.00&quot;/year&quot;"/>
-    <numFmt numFmtId="179" formatCode="####"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00_);&quot;$&quot;\ \(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00&quot;/month&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00&quot;/year&quot;"/>
+    <numFmt numFmtId="167" formatCode="####"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +476,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +518,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -595,21 +606,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,81 +639,88 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1115,10 +1134,10 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
@@ -1134,36 +1153,36 @@
     <col min="12" max="12" width="26.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1"/>
+    <row r="3" spans="2:12" ht="15" customHeight="1"/>
+    <row r="4" spans="2:12" ht="15" customHeight="1"/>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1"/>
+    <row r="6" spans="2:12" ht="21" customHeight="1">
+      <c r="B6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="2:12" ht="21" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="11">
         <f>K9+L12</f>
-        <v>2497.62</v>
+        <v>2118.1800000000003</v>
       </c>
       <c r="L7" s="12">
         <f>K7*12</f>
-        <v>29971.439999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25418.160000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="21" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1198,11 +1217,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="2:12" ht="21" customHeight="1">
+      <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1224,18 +1243,18 @@
       <c r="J9" s="10">
         <v>88.65</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="20">
         <f>SUM(J9:J11)</f>
-        <v>2197.62</v>
-      </c>
-      <c r="L9" s="24">
+        <v>1818.18</v>
+      </c>
+      <c r="L9" s="20">
         <f>K9</f>
-        <v>2197.62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+        <v>1818.18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="21" customHeight="1">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1255,142 +1274,142 @@
       <c r="J10" s="10">
         <v>1208.73</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="7" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="2:12" ht="21" customHeight="1">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="10">
-        <v>900.24</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="36">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="2:12" ht="27" customHeight="1">
+      <c r="B12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="2:12" ht="27" customHeight="1">
+      <c r="B13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="13">
         <f>K9</f>
-        <v>2197.62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+        <v>1818.18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="27" customHeight="1">
+      <c r="B14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" ht="60" customHeight="1">
+      <c r="B17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B12:K12"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B18:L18"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B12:K12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,10 +1423,10 @@
   <dimension ref="B4:O31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1426,18 +1445,18 @@
     <col min="15" max="15" width="12.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="20.25" customHeight="1">
       <c r="K4" s="29" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="30">
-        <v>2497.62</v>
+        <v>2118.1799999999998</v>
       </c>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" ht="20.25" customHeight="1">
       <c r="B5" s="34" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1478,7 @@
       </c>
       <c r="O5" s="31"/>
     </row>
-    <row r="6" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="21" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1469,11 +1488,11 @@
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="33">
-        <v>29971.439999999999</v>
+        <v>25418.16</v>
       </c>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="20.25" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>45</v>
       </c>
@@ -1495,7 +1514,7 @@
       </c>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="20.25" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.25" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
@@ -1559,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.25" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1591,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.25" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1623,7 +1642,7 @@
         <v>88.65</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.25" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1655,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.25" customHeight="1">
       <c r="B13" s="3"/>
       <c r="C13" s="16"/>
       <c r="E13" s="3"/>
@@ -1679,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.25" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="15"/>
       <c r="E14" s="2"/>
@@ -1688,7 +1707,7 @@
         <v>37</v>
       </c>
       <c r="I14" s="15">
-        <v>900.24</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>71</v>
@@ -1703,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.25" customHeight="1">
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
       <c r="E15" s="3"/>
@@ -1723,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.25" customHeight="1">
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
       <c r="E16" s="4"/>
@@ -1735,7 +1754,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.25" customHeight="1">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
@@ -1753,7 +1772,7 @@
       </c>
       <c r="I17" s="18">
         <f>SUM(I8:I14)</f>
-        <v>2108.9700000000003</v>
+        <v>1729.53</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>3</v>
@@ -1768,7 +1787,7 @@
         <v>88.65</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.25" customHeight="1">
       <c r="B18" s="27" t="s">
         <v>9</v>
       </c>
@@ -1790,7 +1809,7 @@
       </c>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.25" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
@@ -1812,7 +1831,7 @@
       </c>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.25" customHeight="1">
       <c r="B20" s="3" t="s">
         <v>83</v>
       </c>
@@ -1844,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.25" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.25" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1904,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.25" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.25" customHeight="1">
       <c r="B24" s="3"/>
       <c r="C24" s="16"/>
       <c r="E24" s="3"/>
@@ -1944,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.25" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="15"/>
       <c r="E25" s="2"/>
@@ -1960,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.25" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="16"/>
       <c r="E26" s="3"/>
@@ -1976,7 +1995,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="4"/>
       <c r="C27" s="17"/>
       <c r="E27" s="4"/>
@@ -1988,7 +2007,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="2:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="60" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="18"/>
       <c r="E28" s="14"/>
@@ -2000,59 +2019,59 @@
       <c r="N28" s="14"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="26"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="20"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="20"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="2:15" ht="20.25" customHeight="1">
+      <c r="B30" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" spans="2:15" ht="20.25" customHeight="1">
+      <c r="B31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2213,13 +2232,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336484E2-E3C0-45A6-A10E-BC0F421329FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336484E2-E3C0-45A6-A10E-BC0F421329FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4832403E-7F01-4ABB-93D8-2556564BD7D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4832403E-7F01-4ABB-93D8-2556564BD7D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D33804-8532-4047-A4A5-DD6E77243FB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D33804-8532-4047-A4A5-DD6E77243FB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>